--- a/aviation_data.xlsx
+++ b/aviation_data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/busaidi/Documents/Amity/2 Pioneers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5521BC37-270D-4944-B4B6-90C97DD15CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955B5113-81B6-FC49-9771-8F12A6D4D951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6780" windowWidth="25520" windowHeight="8060" activeTab="1" xr2:uid="{9CB98857-1688-F24F-B949-CA3F78417559}"/>
+    <workbookView xWindow="0" yWindow="7540" windowWidth="25520" windowHeight="7300" activeTab="1" xr2:uid="{9CB98857-1688-F24F-B949-CA3F78417559}"/>
   </bookViews>
   <sheets>
     <sheet name="motors" sheetId="1" r:id="rId1"/>
-    <sheet name="batteries" sheetId="2" r:id="rId2"/>
+    <sheet name="batteries" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Mass (kg)</t>
   </si>
@@ -74,15 +74,6 @@
     <t>T-Motor U15 II</t>
   </si>
   <si>
-    <t>T-Motor AT8030 85CC</t>
-  </si>
-  <si>
-    <t>Turnigy RotoMax 150cc</t>
-  </si>
-  <si>
-    <t>Mad Motor X8025</t>
-  </si>
-  <si>
     <t>T-Motor V13L</t>
   </si>
   <si>
@@ -96,6 +87,33 @@
   </si>
   <si>
     <t>Current (Ah)</t>
+  </si>
+  <si>
+    <t>T-Motor AT8030 85CC KV190</t>
+  </si>
+  <si>
+    <t>25*10</t>
+  </si>
+  <si>
+    <t>Thrust-to-Power Efficiency (g/W)</t>
+  </si>
+  <si>
+    <t>Mad Motor x8025</t>
+  </si>
+  <si>
+    <t>T-Motor V10L 120cc KV170</t>
+  </si>
+  <si>
+    <t>G29*9.5</t>
+  </si>
+  <si>
+    <t>T-Motor U15XXL KV29</t>
+  </si>
+  <si>
+    <t>ESC Mass (kg)</t>
+  </si>
+  <si>
+    <t>62*24</t>
   </si>
 </sst>
 </file>
@@ -447,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB44008-AB2C-B74B-A834-F402B4A48268}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -466,31 +484,37 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -500,121 +524,225 @@
       <c r="C2">
         <v>60</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>50</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1494</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>12.2</v>
       </c>
-      <c r="H2">
+      <c r="I2">
+        <f>1000*H2/G2</f>
+        <v>8.1659973226238289</v>
+      </c>
+      <c r="J2">
         <v>8580</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>36.5</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>689.9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1.115</v>
+      </c>
+      <c r="C3">
+        <v>40.96</v>
+      </c>
+      <c r="D3">
+        <v>165</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>1698</v>
+      </c>
+      <c r="H3">
+        <v>9.3670000000000009</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I7" si="0">1000*H3/G3</f>
+        <v>5.5164899882214371</v>
+      </c>
+      <c r="J3">
+        <v>5565</v>
+      </c>
+      <c r="K3">
+        <v>21.988</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>1.016</v>
+      </c>
+      <c r="F4">
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <v>494</v>
+      </c>
+      <c r="H4">
+        <v>3.2629999999999999</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>6.6052631578947372</v>
+      </c>
+      <c r="J4">
+        <v>6023</v>
+      </c>
+      <c r="K4">
+        <v>21.733000000000001</v>
+      </c>
+      <c r="M4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>0.99</v>
-      </c>
-      <c r="H3">
-        <v>6000</v>
-      </c>
-      <c r="K3">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>1.68</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <v>4926</v>
+      </c>
+      <c r="H5">
+        <v>26.64</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>5.4080389768574912</v>
+      </c>
+      <c r="J5">
+        <v>18563</v>
+      </c>
+      <c r="K5">
+        <v>54.753999999999998</v>
+      </c>
+      <c r="L5" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="C4">
-        <v>51.8</v>
-      </c>
-      <c r="H4">
-        <v>9076</v>
-      </c>
-      <c r="I4">
-        <v>25.140999999999998</v>
-      </c>
-      <c r="K4">
-        <v>479.99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>1.016</v>
-      </c>
-      <c r="E5">
-        <v>35</v>
-      </c>
-      <c r="F5">
-        <v>494</v>
-      </c>
-      <c r="G5">
-        <v>3.2629999999999999</v>
-      </c>
-      <c r="H5">
-        <v>6023</v>
-      </c>
-      <c r="I5">
-        <v>21.733000000000001</v>
-      </c>
-      <c r="K5">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>859</v>
+      </c>
+      <c r="N5">
+        <v>1149.9000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B6">
-        <v>1.68</v>
+        <v>1.34</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>47.02</v>
       </c>
       <c r="D6">
         <v>200</v>
       </c>
-      <c r="E6">
-        <v>45</v>
-      </c>
       <c r="F6">
-        <v>4926</v>
+        <v>55</v>
       </c>
       <c r="G6">
-        <v>26.64</v>
+        <v>1965</v>
       </c>
       <c r="H6">
-        <v>18563</v>
+        <v>11.254</v>
       </c>
       <c r="I6">
-        <v>54.753999999999998</v>
-      </c>
-      <c r="J6" t="s">
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>5.7272264631043255</v>
+      </c>
+      <c r="J6">
+        <v>7673</v>
       </c>
       <c r="K6">
-        <v>859</v>
-      </c>
-      <c r="L6">
-        <v>1149.9000000000001</v>
+        <v>28.869</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6">
+        <v>399</v>
+      </c>
+      <c r="N6">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>5.13</v>
+      </c>
+      <c r="C7">
+        <v>96</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>0.87</v>
+      </c>
+      <c r="F7">
+        <v>70</v>
+      </c>
+      <c r="G7">
+        <v>7414</v>
+      </c>
+      <c r="H7">
+        <v>53.442999999999998</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>7.2083895333153496</v>
+      </c>
+      <c r="J7">
+        <v>20089</v>
+      </c>
+      <c r="K7">
+        <v>101.449</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7">
+        <v>6197</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -623,18 +751,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A41334-7716-0342-9FF0-DB3B3ECF6264}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407C139E-93AF-2A47-8C38-26D0D917A541}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -645,30 +773,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="C2">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="D2">
-        <v>7.0000000000000007E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="C3">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="D3">
-        <v>4.5999999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
   </sheetData>
